--- a/docs/模版规化20190524.xlsx
+++ b/docs/模版规化20190524.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="136">
   <si>
     <t>百香果</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -331,18 +331,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>真伪（明码）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>三方检测</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>真伪（明码）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三方检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>营养含量表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -355,10 +351,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生长记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类似于产品属性表内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -371,10 +363,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>土壤成份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类似于产品属性，但是图表显示；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -387,10 +375,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>施肥数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类似于二级分类的产品属性表内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -403,10 +387,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>农药数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类似于二级分类的产品属性表内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -439,10 +419,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>环境气候</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>有产地，应该是根据添加的产地，直接调用了气候插件显示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -483,10 +459,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>原料采购</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>原料加工</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -511,10 +483,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>食谱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>图文单页显示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -527,27 +495,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>合格证明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新闻分类、二级分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>类似于产品属性表内容、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>加表内容再中个图片属性，可以多张图片</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -571,6 +519,54 @@
   </si>
   <si>
     <t>全程溯源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三方检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营养含量表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生长记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土壤成份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施肥数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农药数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原料采购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似于产品属性表内容、加表内容再中个图片属性，可以多张图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似于产品属性表内容、加表内容再中个图片属性，可以多张图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食谱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合格证明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境气候</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -643,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -661,6 +657,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -965,7 +962,7 @@
   <dimension ref="B1:K65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1046,7 +1043,7 @@
         <v>24</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>65</v>
@@ -1062,10 +1059,10 @@
       <c r="D6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="10" t="s">
         <v>76</v>
       </c>
       <c r="K6">
@@ -1079,10 +1076,10 @@
       <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="I7" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>78</v>
       </c>
       <c r="K7">
@@ -1100,7 +1097,7 @@
         <v>25</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>28</v>
@@ -1116,10 +1113,10 @@
       <c r="E9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J9" s="2" t="s">
+      <c r="I9" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="J9" s="10" t="s">
         <v>76</v>
       </c>
       <c r="K9">
@@ -1133,10 +1130,10 @@
       <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J10" s="2" t="s">
+      <c r="I10" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J10" s="11" t="s">
         <v>43</v>
       </c>
       <c r="K10">
@@ -1150,11 +1147,11 @@
       <c r="D11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" s="10" t="s">
         <v>85</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1165,16 +1162,16 @@
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>91</v>
+      <c r="I12" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1187,11 +1184,11 @@
       <c r="D13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>95</v>
+      <c r="I13" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1204,11 +1201,11 @@
       <c r="D14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>98</v>
+      <c r="I14" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1221,11 +1218,11 @@
       <c r="D15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>104</v>
+      <c r="I15" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1233,16 +1230,16 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C16" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>87</v>
+      <c r="I16" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1258,11 +1255,11 @@
       <c r="D17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>108</v>
+      <c r="I17" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1271,10 +1268,10 @@
     <row r="18" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C18" s="2"/>
       <c r="D18" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>110</v>
+        <v>81</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1287,11 +1284,11 @@
       <c r="D19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>112</v>
+      <c r="I19" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.15">
@@ -1299,13 +1296,13 @@
         <v>18</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>115</v>
+      <c r="I20" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
@@ -1314,25 +1311,25 @@
     <row r="21" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C21" s="4"/>
       <c r="D21" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C22" s="4"/>
       <c r="D22" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E22" t="s">
-        <v>94</v>
-      </c>
-      <c r="I22" t="s">
-        <v>117</v>
-      </c>
-      <c r="J22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" s="10" t="s">
         <v>130</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1341,16 +1338,16 @@
     <row r="23" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C23" s="4"/>
       <c r="D23" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E23" t="s">
-        <v>94</v>
-      </c>
-      <c r="I23" t="s">
-        <v>119</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>130</v>
+        <v>90</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1362,16 +1359,16 @@
         <v>54</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I24" t="s">
-        <v>121</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>130</v>
+        <v>98</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1381,7 +1378,7 @@
       <c r="C25" s="4"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>55</v>
@@ -1394,11 +1391,11 @@
       <c r="D26" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I26" t="s">
-        <v>124</v>
-      </c>
-      <c r="J26" t="s">
-        <v>126</v>
+      <c r="I26" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -1415,11 +1412,11 @@
         <v>31</v>
       </c>
       <c r="E27" s="7"/>
-      <c r="I27" t="s">
-        <v>128</v>
-      </c>
-      <c r="J27" t="s">
-        <v>104</v>
+      <c r="I27" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -1438,10 +1435,10 @@
     <row r="29" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B29" s="7"/>
       <c r="C29" s="9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E29" s="7"/>
     </row>
@@ -1542,12 +1539,12 @@
         <v>11</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D41" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.15">
@@ -1573,7 +1570,7 @@
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C45" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>52</v>
@@ -1582,7 +1579,7 @@
     <row r="46" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.15">
@@ -1609,7 +1606,7 @@
         <v>54</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>61</v>
@@ -1617,7 +1614,7 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D50" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>56</v>
@@ -1625,10 +1622,10 @@
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D51" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.15">
@@ -1668,10 +1665,10 @@
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C56" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.15">
@@ -1703,10 +1700,10 @@
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C60" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.15">
@@ -1730,7 +1727,7 @@
         <v>63</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.15">

--- a/docs/模版规化20190524.xlsx
+++ b/docs/模版规化20190524.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="8508" windowHeight="4536"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="145">
   <si>
     <t>百香果</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,10 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>产品表内容可满足</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>产品基本信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -164,26 +160,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>溯源档案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生长期图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检测信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肥料使用表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农药使用表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>地块信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -192,10 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生产流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>成生日记</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -412,10 +384,6 @@
   </si>
   <si>
     <t>类似于产品属性表内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>环境气候</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -563,6 +531,74 @@
   </si>
   <si>
     <t>合格证明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境气候</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生长期图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肥料使用表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似于产品属性表内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地块信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溯源档案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生长期图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肥料使用表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农药使用表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地块信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似于产品属性表内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独立表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品表内容可满足</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -959,32 +995,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K65"/>
+  <dimension ref="B1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
-    <col min="4" max="4" width="28.875" customWidth="1"/>
-    <col min="5" max="5" width="34.25" customWidth="1"/>
+    <col min="2" max="2" width="14.69921875" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" customWidth="1"/>
+    <col min="4" max="4" width="28.8984375" customWidth="1"/>
+    <col min="5" max="5" width="34.19921875" customWidth="1"/>
     <col min="6" max="6" width="29" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:11" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D1" s="6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -992,13 +1028,13 @@
         <v>8</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -1009,7 +1045,7 @@
         <v>13</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="J3" s="10" t="s">
         <v>13</v>
@@ -1018,15 +1054,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>15</v>
@@ -1035,58 +1071,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -1097,7 +1133,7 @@
         <v>25</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>28</v>
@@ -1106,7 +1142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D9" s="3" t="s">
         <v>27</v>
       </c>
@@ -1114,16 +1150,16 @@
         <v>26</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1131,16 +1167,16 @@
         <v>17</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
@@ -1148,36 +1184,36 @@
         <v>12</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1185,16 +1221,16 @@
         <v>23</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1202,16 +1238,16 @@
         <v>22</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1219,33 +1255,33 @@
         <v>13</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -1253,31 +1289,31 @@
         <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
       <c r="D18" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C19" s="2" t="s">
         <v>29</v>
       </c>
@@ -1285,464 +1321,495 @@
         <v>28</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C20" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C21" s="4"/>
       <c r="D21" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C22" s="4"/>
       <c r="D22" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E22" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C23" s="4"/>
       <c r="D23" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E23" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C24" s="4"/>
       <c r="D24" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C25" s="4"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C26" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="K26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="I27" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="7"/>
+      <c r="C28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="I27" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B28" s="7"/>
-      <c r="C28" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E28" s="2"/>
+      <c r="I28" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
       <c r="C29" s="9" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B30" s="7"/>
-      <c r="C30" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="9" t="s">
+      <c r="I29" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="I30" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="I31" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="I32" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="7"/>
+      <c r="C37" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B31" s="7"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9" t="s">
+      <c r="D37" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B32" s="7"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B33" s="7"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B34" s="7"/>
-      <c r="C34" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B35" s="7"/>
-      <c r="C35" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="7"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B36" s="7"/>
-      <c r="C36" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9" t="s">
-        <v>47</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C38" s="2" t="s">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D42" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D44" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C46" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C47" s="2"/>
+      <c r="D47" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C50" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D51" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E51" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="4" t="s">
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D52" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C53" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D41" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C42" s="2" t="s">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C55" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D56" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="E56" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C57" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C58" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C59" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D43" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C44" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C45" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C46" s="2"/>
-      <c r="D46" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B47" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C48" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C49" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D50" s="2" t="s">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C61" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="D61" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C62" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C63" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C64" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D51" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C52" s="2" t="s">
+      <c r="D64" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C65" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B53" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C54" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="2" t="s">
+      <c r="D65" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D55" s="2" t="s">
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C66" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E55" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C56" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C57" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C58" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B59" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C60" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C61" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C62" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C63" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C64" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C65" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D65" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>12</v>
       </c>
     </row>

--- a/docs/模版规化20190524.xlsx
+++ b/docs/模版规化20190524.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="146">
   <si>
     <t>百香果</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,10 +165,6 @@
   </si>
   <si>
     <t>类似于产品属性表内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成生日记</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -594,15 +590,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>产品表内容可满足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境气候</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>独立表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>产品表内容可满足</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>环境气候</t>
+    <t>成生日记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成生日记</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -997,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1014,10 +1018,10 @@
   <sheetData>
     <row r="1" spans="2:11" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
@@ -1028,10 +1032,10 @@
         <v>8</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
@@ -1045,7 +1049,7 @@
         <v>13</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J3" s="10" t="s">
         <v>13</v>
@@ -1056,13 +1060,13 @@
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>15</v>
@@ -1073,16 +1077,16 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1090,16 +1094,16 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="I6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>69</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1107,16 +1111,16 @@
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1133,7 +1137,7 @@
         <v>25</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>28</v>
@@ -1150,10 +1154,10 @@
         <v>26</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1167,7 +1171,7 @@
         <v>17</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>37</v>
@@ -1184,10 +1188,10 @@
         <v>12</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1198,16 +1202,16 @@
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1221,10 +1225,10 @@
         <v>23</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1238,10 +1242,10 @@
         <v>22</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1255,10 +1259,10 @@
         <v>13</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1266,16 +1270,16 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1292,10 +1296,10 @@
         <v>33</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1304,10 +1308,10 @@
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
       <c r="D18" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1321,10 +1325,10 @@
         <v>28</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
@@ -1332,13 +1336,13 @@
         <v>18</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="I20" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
@@ -1347,25 +1351,25 @@
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C21" s="4"/>
       <c r="D21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" t="s">
         <v>79</v>
-      </c>
-      <c r="E21" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C22" s="4"/>
       <c r="D22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" t="s">
         <v>82</v>
       </c>
-      <c r="E22" t="s">
-        <v>83</v>
-      </c>
       <c r="I22" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J22" s="10" t="s">
         <v>122</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>123</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1374,16 +1378,16 @@
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C23" s="4"/>
       <c r="D23" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1392,19 +1396,19 @@
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C24" s="4"/>
       <c r="D24" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1414,10 +1418,10 @@
       <c r="C25" s="4"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
@@ -1425,13 +1429,13 @@
         <v>30</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -1445,14 +1449,14 @@
         <v>31</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E27" s="2"/>
       <c r="I27" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -1468,7 +1472,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="I28" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J28" s="9" t="s">
         <v>37</v>
@@ -1477,157 +1481,160 @@
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
       <c r="C29" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E29" s="7"/>
       <c r="I29" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E30" s="2"/>
       <c r="I30" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="E31" s="2"/>
       <c r="I31" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E32" s="2"/>
       <c r="I32" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I33" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
       <c r="C37" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>39</v>
-      </c>
       <c r="E37" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="7"/>
       <c r="C38" s="8"/>
       <c r="D38" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="9" t="s">
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C39" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C41" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D42" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C43" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D44" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C45" s="2" t="s">
         <v>21</v>
       </c>
@@ -1635,21 +1642,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C46" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>6</v>
       </c>
@@ -1670,37 +1677,37 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C50" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D51" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D52" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C53" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
@@ -1708,7 +1715,7 @@
         <v>7</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
@@ -1716,7 +1723,7 @@
         <v>14</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>15</v>
@@ -1724,7 +1731,7 @@
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D56" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>37</v>
@@ -1732,18 +1739,18 @@
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C57" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C58" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
@@ -1756,10 +1763,10 @@
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>15</v>
@@ -1767,10 +1774,10 @@
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C61" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
@@ -1791,23 +1798,23 @@
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C64" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C65" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C66" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>12</v>
